--- a/Book_Online_013/Default.xlsx
+++ b/Book_Online_013/Default.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Jerry Nibbons</t>
   </si>
   <si>
     <t xml:space="preserve">Jerry Nibbons </t>
+  </si>
+  <si>
+    <t>Patient1_innertext</t>
   </si>
   <si>
     <t>Pat1Fname</t>
@@ -526,9 +529,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -537,26 +540,30 @@
     <col min="1" max="1" width="10.41015625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.94921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.41796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
         <v>3</v>
-      </c>
-      <c t="s">
-        <v>6</v>
       </c>
       <c t="s">
         <v>4</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>2</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
@@ -564,9 +571,10 @@
       <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="3" t="s">
-        <v>7</v>
-      </c>
+      <c s="1" t="s">
+        <v>8</v>
+      </c>
+      <c s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
